--- a/Automação Web/Produtos Atualizados.xlsx
+++ b/Automação Web/Produtos Atualizados.xlsx
@@ -462,16 +462,16 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>5.493799999999999</v>
+        <v>5.5196</v>
       </c>
       <c r="E2">
-        <v>5493.745061999999</v>
+        <v>5519.544804</v>
       </c>
       <c r="F2">
         <v>1.4</v>
       </c>
       <c r="G2">
-        <v>7691.243086799998</v>
+        <v>7727.3627256</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -485,16 +485,16 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>6.348162813</v>
+        <v>6.38300343</v>
       </c>
       <c r="E3">
-        <v>28566.7326585</v>
+        <v>28723.515435</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>57133.465317</v>
+        <v>57447.03087</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -508,16 +508,16 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>5.493799999999999</v>
+        <v>5.5196</v>
       </c>
       <c r="E4">
-        <v>4944.365062</v>
+        <v>4967.584804</v>
       </c>
       <c r="F4">
         <v>1.7</v>
       </c>
       <c r="G4">
-        <v>8405.420605399999</v>
+        <v>8444.894166800001</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -531,16 +531,16 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>5.493799999999999</v>
+        <v>5.5196</v>
       </c>
       <c r="E5">
-        <v>4389.5462</v>
+        <v>4410.1604</v>
       </c>
       <c r="F5">
         <v>1.7</v>
       </c>
       <c r="G5">
-        <v>7462.228539999999</v>
+        <v>7497.272679999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -554,16 +554,16 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>6.348162813</v>
+        <v>6.38300343</v>
       </c>
       <c r="E6">
-        <v>19044.488439</v>
+        <v>19149.01029</v>
       </c>
       <c r="F6">
         <v>1.9</v>
       </c>
       <c r="G6">
-        <v>36184.5280341</v>
+        <v>36383.119551</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -577,16 +577,16 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>5.493799999999999</v>
+        <v>5.5196</v>
       </c>
       <c r="E7">
-        <v>2639.661024</v>
+        <v>2652.057408</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>5279.322048</v>
+        <v>5304.114816</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -600,16 +600,16 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>311.66</v>
+        <v>312.11</v>
       </c>
       <c r="E8">
-        <v>6233.200000000001</v>
+        <v>6242.200000000001</v>
       </c>
       <c r="F8">
         <v>1.15</v>
       </c>
       <c r="G8">
-        <v>7168.18</v>
+        <v>7178.530000000001</v>
       </c>
     </row>
   </sheetData>
